--- a/medicine/Enfance/Les_enfants_d'abord_(association)/Les_enfants_d'abord_(association).xlsx
+++ b/medicine/Enfance/Les_enfants_d'abord_(association)/Les_enfants_d'abord_(association).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_enfants_d%27abord_(association)</t>
+          <t>Les_enfants_d'abord_(association)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants d'abord (LED'A) est une association créée en 1988 par Dolores Foin-Sanchez, afin de rassembler des familles non-scolarisantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_enfants_d%27abord_(association)</t>
+          <t>Les_enfants_d'abord_(association)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Objectifs de l'association</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enfants d'Abord a pour premier but d'aider et d'informer les parents prodiguant eux-mêmes l'instruction à leurs enfants, puis de défendre leur libre choix d'instruction.
  Elle a très vite rassemblé plusieurs centaines de familles qui pratiquent l'instruction en famille ou l'enseignement à distance (école à la maison), et organise régulièrement des rencontres à travers la France.
-Un certain nombre de familles attachées aux notions rocheforto-bakeriennes de franche opposition aux idéologies institutionnelles d'instruction, d'éducation et de pédagogie y sont représentées[1].
+Un certain nombre de familles attachées aux notions rocheforto-bakeriennes de franche opposition aux idéologies institutionnelles d'instruction, d'éducation et de pédagogie y sont représentées.
 Cette "résistance" est illustrée par des ouvrages comme Insoumission à l'école obligatoire ou encore Les Enfants d'abord (1976). 
 LED'A anime également des débats lors de salons sur le phénomène de non-scolarisation et sur les apprentissages informels, beaucoup plus courants dans d'autres pays européens, notamment au Royaume Uni ou aux États-Unis, et agit auprès des médias.
 </t>
